--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_9_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_9_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.31000000000036</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58118018678266e-09</v>
+        <v>0.0007320602578930746</v>
       </c>
       <c r="I2" t="n">
-        <v>1.58118018678266e-09</v>
+        <v>0.0007320602578930746</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>57.64859277243431</v>
+        <v>36.28634598962337</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[42.19899377714377, 73.09819176772486]</t>
+          <t>[15.378274804880917, 57.194417174365825]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.764610457755111e-09</v>
+        <v>0.001075576388872346</v>
       </c>
       <c r="O2" t="n">
-        <v>1.764610457755111e-09</v>
+        <v>0.001075576388872346</v>
       </c>
       <c r="P2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 1.9057108589343477]</t>
+          <t>[0.8868159442565782, 2.371131992799504]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.248778858098376e-12</v>
+        <v>6.148203804934305e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.248778858098376e-12</v>
+        <v>6.148203804934305e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>60.30290055299497</v>
+        <v>56.13252117629771</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.12498235227423, 70.48081875371571]</t>
+          <t>[43.49158257218285, 68.77345978041257]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.52193813107715e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.52193813107715e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.20208208208236</v>
+        <v>18.14814814814844</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.93669669669696</v>
+        <v>15.25425425425449</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.46746746746776</v>
+        <v>21.04204204204238</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.31000000000036</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.221130863093833e-09</v>
+        <v>6.12108659314714e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>1.221130863093833e-09</v>
+        <v>6.12108659314714e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>57.72616478640162</v>
+        <v>54.60456002831246</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[41.11615460400925, 74.33617496879398]</t>
+          <t>[37.40034811980071, 71.8087719368242]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.019744266805844e-08</v>
+        <v>8.145305718798568e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.019744266805844e-08</v>
+        <v>8.145305718798568e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.327079178993887</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9874475407679641, 1.6667108172198093]</t>
+          <t>[1.1258159859711174, 1.8805529598065025]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.333984365307742e-10</v>
+        <v>3.193108000232314e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>5.333984365307742e-10</v>
+        <v>3.193108000232314e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>60.19469096215539</v>
+        <v>63.27904756364193</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.108561069689465, 70.28082085462131]</t>
+          <t>[52.08502833110293, 74.47306679618093]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>19.17545545545574</v>
+        <v>18.63863863863894</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.86140140140167</v>
+        <v>17.16716716716745</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.48950950950981</v>
+        <v>20.11011011011043</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.31000000000036</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.351507411206931e-06</v>
+        <v>2.455148417901398e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>1.351507411206931e-06</v>
+        <v>2.455148417901398e-09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>55.02525474655459</v>
+        <v>55.31621884439546</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[33.81047452987555, 76.24003496323364]</t>
+          <t>[39.690169166448314, 70.9422685223426]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.347971114260218e-06</v>
+        <v>6.54124865384631e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>4.347971114260218e-06</v>
+        <v>6.54124865384631e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.465447624197041</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0377633390236554, 1.8931319093704264]</t>
+          <t>[1.2893423303021176, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.427746876281333e-08</v>
+        <v>6.001865671123596e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.427746876281333e-08</v>
+        <v>6.001865671123596e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>62.70727202915812</v>
+        <v>60.94714786754028</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.75641524431933, 75.65812881399691]</t>
+          <t>[50.96754837878679, 70.92674735629377]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.13464793116691e-12</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13464793116691e-12</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>18.64010010010038</v>
+        <v>18.19719719719749</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.98536536536562</v>
+        <v>16.92192192192219</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.29483483483514</v>
+        <v>19.47247247247278</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.31000000000036</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224326973137124e-09</v>
+        <v>3.972279838393433e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224326973137124e-09</v>
+        <v>3.972279838393433e-09</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>59.0970171036557</v>
+        <v>52.96267771940813</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[41.68346525515703, 76.51056895215437]</t>
+          <t>[37.47654543188729, 68.44881000692897]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.788713199779579e-08</v>
+        <v>1.492713996853468e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.788713199779579e-08</v>
+        <v>1.492713996853468e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>1.289342330302118</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.9497106920761942, 1.628973968528041]</t>
+          <t>[1.1132370364071944, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.133973359657148e-09</v>
+        <v>4.453504232060368e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>1.133973359657148e-09</v>
+        <v>4.453504232060368e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>56.5795986575112</v>
+        <v>55.29268275347487</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.265766323956065, 66.89343099106634]</t>
+          <t>[45.5866713998947, 64.99869410705504]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.087219286295294e-14</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.087219286295294e-14</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>19.32146146146175</v>
+        <v>18.83483483483514</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.00740740740768</v>
+        <v>17.51051051051079</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.63551551551582</v>
+        <v>20.15915915915948</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.31000000000036</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.278636642733979e-06</v>
+        <v>1.748299912618378e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>3.278636642733979e-06</v>
+        <v>1.748299912618378e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.08412451200094</v>
+        <v>56.26716099496016</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.429375464873587, 73.7388735591283]</t>
+          <t>[34.190935413252106, 78.34338657666822]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0001014435641246703</v>
+        <v>5.89078212143157e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001014435641246703</v>
+        <v>5.89078212143157e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.075500187715424</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.5849211547224247, 1.5660792207084242]</t>
+          <t>[0.81134224687304, 1.6667108172198093]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.253096332176078e-05</v>
+        <v>5.485383747227957e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>6.253096332176078e-05</v>
+        <v>5.485383747227957e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>61.26229587149822</v>
+        <v>52.18739570201232</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.98237150999377, 73.54222023300267]</t>
+          <t>[40.15278811248498, 64.22200329153966]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.476419235288631e-13</v>
+        <v>3.020295125111261e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>4.476419235288631e-13</v>
+        <v>3.020295125111261e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>20.14882882882913</v>
+        <v>19.66866866866899</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.25075075075102</v>
+        <v>18.00100100100129</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.04690690690723</v>
+        <v>21.33633633633668</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.31000000000036</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.320736205430052e-07</v>
+        <v>1.713876696118888e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.320736205430052e-07</v>
+        <v>1.713876696118888e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>59.46107430177592</v>
+        <v>55.32753068247587</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.26970410763758, 82.65244449591425]</t>
+          <t>[34.938125206496096, 75.71693615845564]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.317852202590956e-06</v>
+        <v>1.926675075036854e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>5.317852202590956e-06</v>
+        <v>1.926675075036854e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.188710733790733</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.786184347745194, 1.5912371198362711]</t>
+          <t>[0.6478159025420398, 1.427710775505271]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.730812636604242e-07</v>
+        <v>2.749665964252301e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>3.730812636604242e-07</v>
+        <v>2.749665964252301e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>60.79358838964239</v>
+        <v>61.93232661457178</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.9466679054575, 73.64050887382727]</t>
+          <t>[51.24928693922419, 72.61536628991936]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.290612144406623e-12</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>2.290612144406623e-12</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>19.7108108108111</v>
+        <v>20.45345345345378</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.15341341341368</v>
+        <v>18.93293293293323</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.26820820820852</v>
+        <v>21.97397397397432</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.9500000000003</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.93848259666396e-08</v>
+        <v>4.234819360515729e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>1.93848259666396e-08</v>
+        <v>4.234819360515729e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>52.01328468339786</v>
+        <v>45.11354869580541</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.59877776777509, 71.42779159902064]</t>
+          <t>[23.914210064589643, 66.31288732702117]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.436134033612092e-06</v>
+        <v>9.466967610483046e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>2.436134033612092e-06</v>
+        <v>9.466967610483046e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8868159442565782</v>
+        <v>0.9371317425122712</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.5220264069028095, 1.2516054816103468]</t>
+          <t>[0.45913165908319353, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.297998758431618e-05</v>
+        <v>0.0002735309226040705</v>
       </c>
       <c r="S8" t="n">
-        <v>1.297998758431618e-05</v>
+        <v>0.0002735309226040705</v>
       </c>
       <c r="T8" t="n">
-        <v>55.86406242713567</v>
+        <v>51.35637203673472</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.79581983430511, 65.93230501996624]</t>
+          <t>[40.18537418495756, 62.52736988851188]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>5.471845199167547e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>5.471845199167547e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>20.56966966966993</v>
+        <v>20.20770770770794</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.17917917917943</v>
+        <v>18.40090090090111</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.96016016016043</v>
+        <v>22.01451451451477</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9500000000003</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.910770234809679e-05</v>
+        <v>1.439515173728978e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>2.910770234809679e-05</v>
+        <v>1.439515173728978e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>43.88283550008762</v>
+        <v>65.15585881389696</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[20.620797410873166, 67.14487358930208]</t>
+          <t>[44.58441219854194, 85.72730542925197]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0004326024567216091</v>
+        <v>8.525408246029542e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0004326024567216091</v>
+        <v>8.525408246029542e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>0.761026448617347</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.2516054816103477]</t>
+          <t>[0.3836579616996536, 0.9874475407679641]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.003114522499904959</v>
+        <v>3.747015066180026e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003114522499904959</v>
+        <v>3.747015066180026e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>59.55486102986927</v>
+        <v>58.04184725054607</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.432217744433004, 71.67750431530553]</t>
+          <t>[47.534556570377134, 68.549137930715]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.238654120556021e-13</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>7.238654120556021e-13</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>21.04914914914942</v>
+        <v>21.1586586586589</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.17917917917942</v>
+        <v>20.01751751751774</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.91911911911941</v>
+        <v>22.29979979980006</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9500000000003</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.905253525588904e-08</v>
+        <v>1.227425872052379e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>4.905253525588904e-08</v>
+        <v>1.227425872052379e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>52.37041823934918</v>
+        <v>58.32496386598785</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.299764379321715, 72.44107209937665]</t>
+          <t>[37.352566032782576, 79.29736169919313]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.912708372189044e-06</v>
+        <v>1.21521093010557e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>3.912708372189044e-06</v>
+        <v>1.21521093010557e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.025184389459732</v>
+        <v>1.062921238151502</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 1.415131825941348]</t>
+          <t>[0.6855527512338089, 1.4402897250691957]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.422945827225021e-06</v>
+        <v>9.52196767434188e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>3.422945827225021e-06</v>
+        <v>9.52196767434188e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>58.60418459400864</v>
+        <v>56.52103367497322</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[48.077265421403666, 69.1311037666136]</t>
+          <t>[45.46133004007094, 67.5807373098755]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>2.087219286295294e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>2.087219286295294e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>20.0422422422425</v>
+        <v>19.73223223223246</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.55585585585609</v>
+        <v>18.30580580580601</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.5286286286289</v>
+        <v>21.1586586586589</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.9500000000003</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.406031095527396e-10</v>
+        <v>2.905614715498217e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>4.406031095527396e-10</v>
+        <v>2.905614715498217e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>59.15923317418013</v>
+        <v>45.17917839763882</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[40.11004235210416, 78.2084239962561]</t>
+          <t>[24.066514715096147, 66.2918420801815]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.304795758105826e-07</v>
+        <v>8.772713535587506e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.304795758105826e-07</v>
+        <v>8.772713535587506e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8993948938205021</v>
+        <v>0.9497106920761942</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 1.2264475824825034]</t>
+          <t>[0.4842895582110396, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.502353802695922e-06</v>
+        <v>0.000165441554323742</v>
       </c>
       <c r="S11" t="n">
-        <v>1.502353802695922e-06</v>
+        <v>0.000165441554323742</v>
       </c>
       <c r="T11" t="n">
-        <v>59.85535655051235</v>
+        <v>55.9201339972704</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.95013554524567, 69.76057755577902]</t>
+          <t>[44.96222176414899, 66.87804623039182]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.184918912462308e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.184918912462308e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>20.52172172172198</v>
+        <v>20.16016016016039</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.27507507507531</v>
+        <v>18.40090090090111</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.76836836836865</v>
+        <v>21.91941941941967</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9500000000003</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.667644954350678e-07</v>
+        <v>1.219201659430347e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>1.667644954350678e-07</v>
+        <v>1.219201659430347e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>51.98352289758655</v>
+        <v>44.26029098757413</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[30.705187146496357, 73.26185864867674]</t>
+          <t>[22.045769203637292, 66.47481277151097]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.19810565895051e-05</v>
+        <v>0.0002240820566856705</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19810565895051e-05</v>
+        <v>0.0002240820566856705</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9119738433844242</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5094474573388856, 1.3145002294299628]</t>
+          <t>[0.5220264069028087, 1.553500271144502]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.877119037487553e-05</v>
+        <v>0.0001978673728328939</v>
       </c>
       <c r="S12" t="n">
-        <v>3.877119037487553e-05</v>
+        <v>0.0001978673728328939</v>
       </c>
       <c r="T12" t="n">
-        <v>62.53270799908881</v>
+        <v>53.0236194444773</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[51.50456845730645, 73.56084754087118]</t>
+          <t>[41.430388804538396, 64.6168500844162]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>6.379119454891224e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>6.379119454891224e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>20.47377377377403</v>
+        <v>19.82732732732756</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.93943943943968</v>
+        <v>17.87787787787808</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.00810810810839</v>
+        <v>21.77677677677703</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_9_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_9_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.50000000000039</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007320602578930746</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007320602578930746</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>36.28634598962337</v>
+        <v>63.5230236646246</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.378274804880917, 57.194417174365825]</t>
+          <t>[52.808467366806724, 74.23757996244248]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001075576388872346</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001075576388872346</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 2.371131992799504]</t>
+          <t>[1.452868674633116, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.148203804934305e-05</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.148203804934305e-05</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.13252117629771</v>
+        <v>56.06522974556217</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.49158257218285, 68.77345978041257]</t>
+          <t>[48.913997529515, 63.21646196160934]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.52193813107715e-11</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52193813107715e-11</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.14814814814844</v>
+        <v>18.07407407407435</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.25425425425449</v>
+        <v>17.39019019019046</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.04204204204238</v>
+        <v>18.75795795795825</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.50000000000039</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.12108659314714e-08</v>
+        <v>1.324401788238561e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>6.12108659314714e-08</v>
+        <v>1.324401788238561e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>54.60456002831246</v>
+        <v>47.72984178748149</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[37.40034811980071, 71.8087719368242]</t>
+          <t>[31.1709467397323, 64.28873683523068]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.145305718798568e-08</v>
+        <v>6.065181716863322e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>8.145305718798568e-08</v>
+        <v>6.065181716863322e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.50318447288881</v>
+        <v>1.440289725069195</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1258159859711174, 1.8805529598065025]</t>
+          <t>[1.0377633390236554, 1.8428161111147343]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.193108000232314e-10</v>
+        <v>5.035479810899801e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>3.193108000232314e-10</v>
+        <v>5.035479810899801e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>63.27904756364193</v>
+        <v>52.23367708583822</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.08502833110293, 74.47306679618093]</t>
+          <t>[42.13225326144121, 62.33510091023524]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>1.434408147815702e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>1.434408147815702e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>18.63863863863894</v>
+        <v>18.8068068068071</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.16716716716745</v>
+        <v>17.24364364364391</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.11011011011043</v>
+        <v>20.36996996997028</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.50000000000039</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.455148417901398e-09</v>
+        <v>9.62752775279796e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>2.455148417901398e-09</v>
+        <v>9.62752775279796e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>55.31621884439546</v>
+        <v>45.80795737711795</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[39.690169166448314, 70.9422685223426]</t>
+          <t>[29.157342049129255, 62.45857270510665]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.54124865384631e-09</v>
+        <v>1.49083405620587e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>6.54124865384631e-09</v>
+        <v>1.49083405620587e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.616395018964118</v>
+        <v>1.30192127986604</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2893423303021176, 1.9434477076261185]</t>
+          <t>[0.8993948938205012, 1.7044476659115784]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.001865671123596e-13</v>
+        <v>5.36685520469149e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>6.001865671123596e-13</v>
+        <v>5.36685520469149e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>60.94714786754028</v>
+        <v>53.58155518417365</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.96754837878679, 70.92674735629377]</t>
+          <t>[44.03766597174356, 63.12544439660373]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>9.769962616701378e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>9.769962616701378e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>18.19719719719749</v>
+        <v>19.34414414414444</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.92192192192219</v>
+        <v>17.78098098098126</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.47247247247278</v>
+        <v>20.90730730730763</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.50000000000039</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.972279838393433e-09</v>
+        <v>5.522249324485529e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>3.972279838393433e-09</v>
+        <v>5.522249324485529e-13</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.96267771940813</v>
+        <v>68.80367988789317</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[37.47654543188729, 68.44881000692897]</t>
+          <t>[53.42606648800508, 84.18129328778126]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.492713996853468e-08</v>
+        <v>1.220001877300092e-11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.492713996853468e-08</v>
+        <v>1.220001877300092e-11</v>
       </c>
       <c r="P5" t="n">
-        <v>1.452868674633118</v>
+        <v>1.377394977249579</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 1.7925003128590413]</t>
+          <t>[1.1383949355350405, 1.6163950189641172]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.453504232060368e-11</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="S5" t="n">
-        <v>4.453504232060368e-11</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="T5" t="n">
-        <v>55.29268275347487</v>
+        <v>62.8675047030718</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.5866713998947, 64.99869410705504]</t>
+          <t>[53.58672740999445, 72.14828199614915]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18.83483483483514</v>
+        <v>19.05105105105135</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.51051051051079</v>
+        <v>18.12292292292321</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.15915915915948</v>
+        <v>19.97917917917949</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.50000000000039</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.748299912618378e-07</v>
+        <v>8.860412292754916e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>1.748299912618378e-07</v>
+        <v>8.860412292754916e-09</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>56.26716099496016</v>
+        <v>58.09343115506854</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[34.190935413252106, 78.34338657666822]</t>
+          <t>[38.92979931727157, 77.2570629928655]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.89078212143157e-06</v>
+        <v>2.175683015970264e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>5.89078212143157e-06</v>
+        <v>2.175683015970264e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>1.239026532046425</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.81134224687304, 1.6667108172198093]</t>
+          <t>[0.9119738433844242, 1.6667108172198093]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.485383747227957e-07</v>
+        <v>1.527438797666036e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>5.485383747227957e-07</v>
+        <v>1.527438797666036e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>52.18739570201232</v>
+        <v>57.58528209306096</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.15278811248498, 64.22200329153966]</t>
+          <t>[46.62009872818669, 68.55046545793523]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.020295125111261e-11</v>
+        <v>8.704148513061227e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>3.020295125111261e-11</v>
+        <v>8.704148513061227e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>19.66866866866899</v>
+        <v>19.39299299299329</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.00100100100129</v>
+        <v>17.92752752752781</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.33633633633668</v>
+        <v>20.85845845845878</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.50000000000039</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.713876696118888e-08</v>
+        <v>4.2834453761742e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>1.713876696118888e-08</v>
+        <v>4.2834453761742e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>55.32753068247587</v>
+        <v>61.67309725047031</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.938125206496096, 75.71693615845564]</t>
+          <t>[40.36426641971897, 82.98192808122165]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.926675075036854e-06</v>
+        <v>5.59222587348529e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>1.926675075036854e-06</v>
+        <v>5.59222587348529e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>1.037763339023655</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.6478159025420398, 1.427710775505271]</t>
+          <t>[0.723289599925578, 1.427710775505271]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.749665964252301e-06</v>
+        <v>1.86791363709915e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>2.749665964252301e-06</v>
+        <v>1.86791363709915e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>61.93232661457178</v>
+        <v>63.19173389732474</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[51.24928693922419, 72.61536628991936]</t>
+          <t>[51.913953672130994, 74.46951412251849]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.043609643147647e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.043609643147647e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>20.45345345345378</v>
+        <v>20.22342342342374</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.93293293293323</v>
+        <v>18.85565565565595</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.97397397397432</v>
+        <v>21.59119119119152</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.75000000000027</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.234819360515729e-06</v>
+        <v>4.375508178000587e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>4.234819360515729e-06</v>
+        <v>4.375508178000587e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>45.11354869580541</v>
+        <v>53.80905671048853</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[23.914210064589643, 66.31288732702117]</t>
+          <t>[35.05781290782343, 72.56030051315362]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>9.466967610483046e-05</v>
+        <v>6.622403727618575e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>9.466967610483046e-05</v>
+        <v>6.622403727618575e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9371317425122712</v>
+        <v>1.025184389459731</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 1.4151318259413488]</t>
+          <t>[0.6603948521059619, 1.389973926813501]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0002735309226040705</v>
+        <v>9.943321819250173e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0002735309226040705</v>
+        <v>9.943321819250173e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>51.35637203673472</v>
+        <v>60.3836079783305</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.18537418495756, 62.52736988851188]</t>
+          <t>[50.56395284214305, 70.20326311451794]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.471845199167547e-12</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W8" t="n">
-        <v>5.471845199167547e-12</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>20.20770770770794</v>
+        <v>20.14266266266294</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.40090090090111</v>
+        <v>18.74520520520546</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.01451451451477</v>
+        <v>21.54012012012041</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.75000000000027</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.439515173728978e-10</v>
+        <v>2.171888128232879e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>1.439515173728978e-10</v>
+        <v>2.171888128232879e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>65.15585881389696</v>
+        <v>57.31128568977815</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[44.58441219854194, 85.72730542925197]</t>
+          <t>[33.42253502741336, 81.20003635214294]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>8.525408246029542e-08</v>
+        <v>1.605911514501734e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>8.525408246029542e-08</v>
+        <v>1.605911514501734e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6855527512338089</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.3836579616996536, 0.9874475407679641]</t>
+          <t>[0.5220264069028087, 1.3522370781217319]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.747015066180026e-05</v>
+        <v>4.086946622727794e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>3.747015066180026e-05</v>
+        <v>4.086946622727794e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>58.04184725054607</v>
+        <v>59.58740480740004</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.534556570377134, 68.549137930715]</t>
+          <t>[47.28930223480491, 71.88550737999518]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.643130076445232e-14</v>
+        <v>1.110889158439932e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.643130076445232e-14</v>
+        <v>1.110889158439932e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>21.1586586586589</v>
+        <v>20.47997997998026</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.01751751751774</v>
+        <v>18.88976976977003</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.29979979980006</v>
+        <v>22.07019019019049</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.75000000000027</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.227425872052379e-08</v>
+        <v>3.916239554868639e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>1.227425872052379e-08</v>
+        <v>3.916239554868639e-10</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>58.32496386598785</v>
+        <v>55.0487340826819</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[37.352566032782576, 79.29736169919313]</t>
+          <t>[37.18213615412385, 72.91533201123995]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.21521093010557e-06</v>
+        <v>1.54503381200044e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21521093010557e-06</v>
+        <v>1.54503381200044e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>1.062921238151502</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.4402897250691957]</t>
+          <t>[0.5597632555945768, 1.2138686329185795]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.52196767434188e-07</v>
+        <v>1.953183605296616e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>9.52196767434188e-07</v>
+        <v>1.953183605296616e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>56.52103367497322</v>
+        <v>60.17316675914415</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.46133004007094, 67.5807373098755]</t>
+          <t>[50.99189197531206, 69.35444154297625]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.087219286295294e-13</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2.087219286295294e-13</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>19.73223223223246</v>
+        <v>20.67273273273301</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.30580580580601</v>
+        <v>19.4198398398401</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.1586586586589</v>
+        <v>21.92562562562592</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.75000000000027</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.905614715498217e-06</v>
+        <v>8.098650972065968e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>2.905614715498217e-06</v>
+        <v>8.098650972065968e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>45.17917839763882</v>
+        <v>54.65617048514972</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[24.066514715096147, 66.2918420801815]</t>
+          <t>[34.40263094070359, 74.90971002959586]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8.772713535587506e-05</v>
+        <v>2.13321828756996e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>8.772713535587506e-05</v>
+        <v>2.13321828756996e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9497106920761942</v>
+        <v>0.7232895999255771</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.4842895582110396, 1.4151318259413488]</t>
+          <t>[0.3710790121357297, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.000165441554323742</v>
+        <v>0.0001523274562564847</v>
       </c>
       <c r="S11" t="n">
-        <v>0.000165441554323742</v>
+        <v>0.0001523274562564847</v>
       </c>
       <c r="T11" t="n">
-        <v>55.9201339972704</v>
+        <v>49.85627346134463</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.96222176414899, 66.87804623039182]</t>
+          <t>[39.6434669229789, 60.069079999710354]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.184918912462308e-13</v>
+        <v>8.808509477375992e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.184918912462308e-13</v>
+        <v>8.808509477375992e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>20.16016016016039</v>
+        <v>21.29917917917947</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.40090090090111</v>
+        <v>19.94990990991018</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.91941941941967</v>
+        <v>22.64844844844876</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.75000000000027</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.219201659430347e-05</v>
+        <v>1.907299400638607e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>1.219201659430347e-05</v>
+        <v>1.907299400638607e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>44.26029098757413</v>
+        <v>50.92619410648933</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[22.045769203637292, 66.47481277151097]</t>
+          <t>[29.926205630871294, 71.92618258210737]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0002240820566856705</v>
+        <v>1.350804746347301e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002240820566856705</v>
+        <v>1.350804746347301e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.037763339023655</v>
+        <v>0.9874475407679633</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5220264069028087, 1.553500271144502]</t>
+          <t>[0.5723422051584999, 1.4025528763774266]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0001978673728328939</v>
+        <v>1.837906523816102e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001978673728328939</v>
+        <v>1.837906523816102e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>53.0236194444773</v>
+        <v>67.13309759145501</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[41.430388804538396, 64.6168500844162]</t>
+          <t>[56.271826191880265, 77.99436899102976]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.379119454891224e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>6.379119454891224e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>19.82732732732756</v>
+        <v>20.2872272272275</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.87787787787808</v>
+        <v>18.69701701701726</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.77677677677703</v>
+        <v>21.87743743743773</v>
       </c>
     </row>
   </sheetData>
